--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -40,6 +40,9 @@
     <t>是否被BUFF影响</t>
   </si>
   <si>
+    <t>最大值</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>Affected</t>
   </si>
   <si>
+    <t>MaxAttr</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -103,15 +109,15 @@
     <t>Attr_HP</t>
   </si>
   <si>
+    <t>MaxHp</t>
+  </si>
+  <si>
     <t>Attr_Desc_HP</t>
   </si>
   <si>
     <t>最大血量上限</t>
   </si>
   <si>
-    <t>MaxHp</t>
-  </si>
-  <si>
     <t>Attr_Max_Hp</t>
   </si>
   <si>
@@ -139,15 +145,15 @@
     <t>Attr_Mp</t>
   </si>
   <si>
+    <t>MaxMp</t>
+  </si>
+  <si>
     <t>Attr_Desc_Mp</t>
   </si>
   <si>
     <t>最大法力上限</t>
   </si>
   <si>
-    <t>MaxMp</t>
-  </si>
-  <si>
     <t>Attr_Max_Mp</t>
   </si>
   <si>
@@ -200,6 +206,18 @@
   </si>
   <si>
     <t>Attr_Desc_DEF</t>
+  </si>
+  <si>
+    <t>霸体值</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Attr_EN</t>
+  </si>
+  <si>
+    <t>Attr_Desc_EN</t>
   </si>
 </sst>
 </file>
@@ -207,8 +225,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -234,6 +252,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -242,6 +282,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -250,9 +305,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,17 +341,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,66 +381,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,28 +395,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,25 +411,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,157 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +602,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,8 +634,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -650,37 +694,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1200,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J17"/>
+  <dimension ref="C2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1211,8 +1229,8 @@
     <col min="4" max="5" width="18.2166666666667" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="24.775" customWidth="1"/>
-    <col min="9" max="9" width="14.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="9" max="10" width="14.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
@@ -1221,7 +1239,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="3:10">
+    <row r="3" ht="14.25" spans="3:11">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1246,255 +1264,277 @@
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="3:10">
+    <row r="4" ht="14.25" spans="3:11">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:10">
+    <row r="5" ht="14.25" spans="3:11">
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="3:10">
+    <row r="6" ht="14.25" spans="3:11">
       <c r="C6" s="3">
         <v>1000</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="3:10">
+    <row r="7" ht="14.25" spans="3:11">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="3:10">
+    <row r="8" ht="14.25" spans="3:11">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
-        <v>25</v>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="3:10">
+    <row r="9" ht="14.25" spans="3:11">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="3:10">
+    <row r="10" ht="14.25" spans="3:11">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>33</v>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="3:10">
+    <row r="11" ht="14.25" spans="3:11">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="3:10">
+    <row r="12" ht="14.25" spans="3:11">
       <c r="C12" s="3">
         <v>1006</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="3:10">
+    <row r="13" ht="14.25" spans="3:11">
       <c r="C13" s="3">
         <v>1007</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>45</v>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="3:10">
+    <row r="14" ht="14.25" spans="3:11">
       <c r="C14" s="3">
         <v>1008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
         <v>1</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>49</v>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="3:10">
+    <row r="15" ht="14.25" spans="3:11">
       <c r="C15" s="3">
         <v>1009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1503,52 +1543,78 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>53</v>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="3:10">
+    <row r="16" ht="14.25" spans="3:11">
       <c r="C16" s="3">
         <v>1010</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>57</v>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="3:10">
+    <row r="17" ht="14.25" spans="3:11">
       <c r="C17" s="3">
         <v>1011</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>61</v>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="3:11">
+      <c r="C18" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -43,6 +56,9 @@
     <t>最大值</t>
   </si>
   <si>
+    <t>回复值</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -67,6 +83,9 @@
     <t>MaxAttr</t>
   </si>
   <si>
+    <t>AttrReUp</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -112,6 +131,9 @@
     <t>MaxHp</t>
   </si>
   <si>
+    <t>HpReUp</t>
+  </si>
+  <si>
     <t>Attr_Desc_HP</t>
   </si>
   <si>
@@ -127,9 +149,6 @@
     <t>血量回复</t>
   </si>
   <si>
-    <t>HpReUp</t>
-  </si>
-  <si>
     <t>Attr_Hp_ReUp</t>
   </si>
   <si>
@@ -148,6 +167,9 @@
     <t>MaxMp</t>
   </si>
   <si>
+    <t>MpReUp</t>
+  </si>
+  <si>
     <t>Attr_Desc_Mp</t>
   </si>
   <si>
@@ -161,9 +183,6 @@
   </si>
   <si>
     <t>法力回复</t>
-  </si>
-  <si>
-    <t>MpReUp</t>
   </si>
   <si>
     <t>Attr_Mp_ReUp</t>
@@ -223,12 +242,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,8 +271,102 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,30 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,85 +402,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,19 +430,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,163 +598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,13 +624,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,71 +705,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,148 +726,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -872,52 +891,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1218,10 +1237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:K18"/>
+  <dimension ref="C2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1229,8 +1248,8 @@
     <col min="4" max="5" width="18.2166666666667" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="24.775" customWidth="1"/>
-    <col min="9" max="10" width="14.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="9" max="11" width="14.8833333333333" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
@@ -1239,7 +1258,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="3:11">
+    <row r="3" ht="14.25" spans="3:12">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1267,159 +1286,174 @@
       <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="3:11">
+    <row r="4" ht="14.25" spans="3:12">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:11">
+    <row r="5" ht="14.25" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="3:11">
+    <row r="6" ht="14.25" spans="3:12">
       <c r="C6" s="3">
         <v>1000</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" ht="14.25" spans="3:11">
+    <row r="7" ht="14.25" spans="3:12">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4" t="s">
-        <v>24</v>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="3:11">
+    <row r="8" ht="14.25" spans="3:12">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4" t="s">
-        <v>27</v>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="3:11">
+    <row r="9" ht="14.25" spans="3:12">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="3:11">
+    <row r="10" ht="14.25" spans="3:12">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1427,22 +1461,23 @@
         <v>1</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="3:11">
+    <row r="11" ht="14.25" spans="3:12">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1450,45 +1485,49 @@
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>39</v>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="3:11">
+    <row r="12" ht="14.25" spans="3:12">
       <c r="C12" s="3">
         <v>1006</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="3:11">
+    <row r="13" ht="14.25" spans="3:12">
       <c r="C13" s="3">
         <v>1007</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1496,22 +1535,23 @@
         <v>1</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>47</v>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="3:11">
+    <row r="14" ht="14.25" spans="3:12">
       <c r="C14" s="3">
         <v>1008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1519,22 +1559,23 @@
         <v>1</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>51</v>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="3:11">
+    <row r="15" ht="14.25" spans="3:12">
       <c r="C15" s="3">
         <v>1009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -1544,22 +1585,23 @@
         <v>1</v>
       </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>55</v>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="3:11">
+    <row r="16" ht="14.25" spans="3:12">
       <c r="C16" s="3">
         <v>1010</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1567,22 +1609,23 @@
         <v>1</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>59</v>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="3:11">
+    <row r="17" ht="14.25" spans="3:12">
       <c r="C17" s="3">
         <v>1011</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1590,31 +1633,33 @@
         <v>1</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>63</v>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="3:11">
+    <row r="18" ht="14.25" spans="3:12">
       <c r="C18" s="3">
         <v>1012</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/AttributeConfig@cs.xlsx
+++ b/Excel/AttributeConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>Attr_Desc_EN</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>Attr_Attack_Speed</t>
+  </si>
+  <si>
+    <t>Attr_Desc_Attack_Speed</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L18"/>
+  <dimension ref="C2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1662,6 +1674,32 @@
         <v>69</v>
       </c>
     </row>
+    <row r="19" ht="14.25" spans="3:12">
+      <c r="C19" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
